--- a/data/trans_dic/P33B_R4-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R4-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1145153240428909</v>
+        <v>0.1146678555150822</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2065987159942029</v>
+        <v>0.2070035049714342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.168832341239784</v>
+        <v>0.1690258788195092</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1743759527748126</v>
+        <v>0.1724478327947816</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2552166254720671</v>
+        <v>0.2572030311965257</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2062300368358746</v>
+        <v>0.2074634990149791</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.2221800517999285</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1767786129984788</v>
+        <v>0.1767786129984787</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1108498658570611</v>
+        <v>0.110195967896829</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1999678240858795</v>
+        <v>0.2003883375913471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1615942682388999</v>
+        <v>0.1618288608617661</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1521023474283894</v>
+        <v>0.15682766829702</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2451506761466577</v>
+        <v>0.2431051752210182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1929187200081119</v>
+        <v>0.1944978801640383</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09204085550095958</v>
+        <v>0.09424856975786498</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1764337476234715</v>
+        <v>0.1762657718257088</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1405652127334468</v>
+        <v>0.1413883987846271</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1415300243729343</v>
+        <v>0.1421850382143752</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2301978481204451</v>
+        <v>0.2293393139013732</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1787935264915647</v>
+        <v>0.1781863086124517</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1399623200207652</v>
+        <v>0.1379665461328785</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2211562695327765</v>
+        <v>0.2198129409188877</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1889741447727826</v>
+        <v>0.1896976447021977</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1857690201608122</v>
+        <v>0.1847377786128148</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2663712451110213</v>
+        <v>0.2641842695106449</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2208742972196264</v>
+        <v>0.2229267553413204</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1255420358413234</v>
+        <v>0.1260824944610589</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2131889006706216</v>
+        <v>0.2130505169081358</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1746251215628594</v>
+        <v>0.1739775242364132</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1518345094474919</v>
+        <v>0.150215052640227</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2379755458396124</v>
+        <v>0.2375701173601832</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1924705459626205</v>
+        <v>0.1923264216905522</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>78973</v>
+        <v>79078</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>151294</v>
+        <v>151590</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>240068</v>
+        <v>240344</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>120255</v>
+        <v>118925</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>186897</v>
+        <v>188352</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>293246</v>
+        <v>294999</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>116163</v>
+        <v>115478</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>213985</v>
+        <v>214435</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>342261</v>
+        <v>342758</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>159392</v>
+        <v>164344</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>262335</v>
+        <v>260146</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>408607</v>
+        <v>411952</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>73916</v>
+        <v>75688</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>143310</v>
+        <v>143173</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>227059</v>
+        <v>228389</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>113659</v>
+        <v>114185</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>186980</v>
+        <v>186283</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>288811</v>
+        <v>287830</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>138434</v>
+        <v>136461</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>247323</v>
+        <v>245821</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>398245</v>
+        <v>399769</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>183741</v>
+        <v>182721</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>297888</v>
+        <v>295442</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>465471</v>
+        <v>469797</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>443127</v>
+        <v>445035</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>795830</v>
+        <v>795314</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1268249</v>
+        <v>1263546</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>535932</v>
+        <v>530216</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>888358</v>
+        <v>886845</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1397855</v>
+        <v>1396808</v>
       </c>
     </row>
     <row r="24">
